--- a/reportes/base/ocierreVenta.xlsx
+++ b/reportes/base/ocierreVenta.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4003299a955809c3/Escritorio/calera/reportes/base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_A3AD8052060DDFB58B4CFB36282AC21238724DF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89CDA36-3D9B-4339-855A-121671A61160}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF921A-1328-4B9B-A861-00246C0747BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Cierre de Ventas. </t>
   </si>
@@ -45,12 +57,15 @@
   <si>
     <t>Total ventas crédito</t>
   </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +107,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -142,6 +163,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -458,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,51 +506,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9">
+        <f ca="1">TODAY()</f>
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -832,6 +865,15 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/reportes/base/ocierreVenta.xlsx
+++ b/reportes/base/ocierreVenta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF921A-1328-4B9B-A861-00246C0747BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC851FD7-DB09-4442-B616-167E3EBDCA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21240" yWindow="-2400" windowWidth="19050" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">Tipo </t>
   </si>
   <si>
-    <t>Agente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Producto descripción </t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -165,13 +165,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,49 +506,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
         <f ca="1">TODAY()</f>
-        <v>44783</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/reportes/base/ocierreVenta.xlsx
+++ b/reportes/base/ocierreVenta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdaniel\Desktop\calera_project\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF921A-1328-4B9B-A861-00246C0747BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47722BD1-70AF-474F-8EBC-4BCEE3BB3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">Tipo </t>
   </si>
   <si>
-    <t>Agente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Producto descripción </t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -165,13 +165,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,10 +491,10 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.36328125" style="2" customWidth="1"/>
@@ -506,22 +506,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
         <f ca="1">TODAY()</f>
-        <v>44783</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="10" customHeight="1" x14ac:dyDescent="0.35">
@@ -533,22 +533,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/reportes/base/ocierreVenta.xlsx
+++ b/reportes/base/ocierreVenta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdaniel\Desktop\calera_project\report_sa_services\reportes\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47722BD1-70AF-474F-8EBC-4BCEE3BB3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9230890E-F2FA-4228-9DA1-597820E94E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="40" windowWidth="18980" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +88,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -101,15 +95,28 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Aparajita"/>
       <family val="1"/>
     </font>
@@ -149,30 +156,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,7 +203,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,13 +502,13 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.90625" style="2" bestFit="1" customWidth="1"/>
@@ -506,374 +517,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <f ca="1">TODAY()</f>
-        <v>44788</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/reportes/base/ocierreVenta.xlsx
+++ b/reportes/base/ocierreVenta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9230890E-F2FA-4228-9DA1-597820E94E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7F5F9-C536-42A6-9989-8C4BDE00CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="40" windowWidth="18980" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Cierre de Ventas. </t>
   </si>
@@ -49,16 +49,22 @@
     <t>Clave</t>
   </si>
   <si>
-    <t>Total ventas efectivo</t>
-  </si>
-  <si>
-    <t>Total ventas crédito</t>
-  </si>
-  <si>
-    <t>Fecha:</t>
-  </si>
-  <si>
     <t>Cliente</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Total Producto</t>
+  </si>
+  <si>
+    <t>Total Venta</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Fecha del reporte:</t>
   </si>
 </sst>
 </file>
@@ -156,19 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -184,6 +181,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,396 +517,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.453125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6">
-        <f ca="1">TODAY()</f>
-        <v>44791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="4"/>
+      <c r="F2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11"/>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" s="10" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/reportes/base/ocierreVenta.xlsx
+++ b/reportes/base/ocierreVenta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7F5F9-C536-42A6-9989-8C4BDE00CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0161379A-ED96-4B90-AF45-40D76A1EA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Cierre de Ventas. </t>
   </si>
@@ -65,13 +65,25 @@
   </si>
   <si>
     <t>Fecha del reporte:</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>DATOS DE VENTA</t>
+  </si>
+  <si>
+    <t>DATOS DEL PRODUCTO DE LA VENTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +138,19 @@
       <name val="Aparajita"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aparajita"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,25 +169,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dotted">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -172,39 +211,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,483 +568,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial Black,Normal"&amp;K00-048Minerales San Antonio SA de CV</oddHeader>
+    <oddHeader>&amp;L&amp;"Arial Black,Normal"&amp;K00-047Minerales San Antonio SA de CV</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/reportes/base/ocierreVenta.xlsx
+++ b/reportes/base/ocierreVenta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0161379A-ED96-4B90-AF45-40D76A1EA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DFF50-F24B-4FDC-BEEB-094831DF2A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24900" yWindow="-1770" windowWidth="21315" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Total Venta</t>
   </si>
   <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
     <t>Fecha del reporte:</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>DATOS DEL PRODUCTO DE LA VENTA</t>
+  </si>
+  <si>
+    <t>Pago pendiente</t>
   </si>
 </sst>
 </file>
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +125,6 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aparajita"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -160,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,39 +162,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -218,6 +198,28 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -230,28 +232,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,503 +564,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.54296875" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="9" customWidth="1"/>
     <col min="4" max="4" width="22.08984375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="18"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12"/>
       <c r="H2" s="7"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="13"/>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1072,7 +1142,7 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/reportes/base/ocierreVenta.xlsx
+++ b/reportes/base/ocierreVenta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uemar\Desktop\calera\report_sa_services\reportes\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdaniel\Desktop\calera_project\report_sa_services\reportes\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DFF50-F24B-4FDC-BEEB-094831DF2A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D95D5B-4779-4F49-BB1E-E57D8F20DAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="-1770" windowWidth="21315" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -179,12 +179,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -207,18 +206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,10 +222,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,9 +236,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,580 +567,577 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="5.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="3"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
-    </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="24"/>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:I4"/>
   </mergeCells>
@@ -1150,4 +1147,10 @@
     <oddHeader>&amp;L&amp;"Arial Black,Normal"&amp;K00-047Minerales San Antonio SA de CV</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>